--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24inter/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283A30EE-5C87-0741-8FCC-4EDA6A416B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F557B6-2D35-924A-8DAB-A798FA61AA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10480" yWindow="5200" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>blank</t>
   </si>
@@ -171,9 +171,6 @@
     <t>teapot.jpg</t>
   </si>
   <si>
-    <t>[nesbittIntroduction2016]</t>
-  </si>
-  <si>
     <t>[pollackIntegrationUndReligion2016a]</t>
   </si>
   <si>
@@ -349,6 +346,12 @@
   </si>
   <si>
     <t>pollackIntegrationUndReligion2016b</t>
+  </si>
+  <si>
+    <t>Religiöse Identität bei der Einwanderung anhand von Umfragedaten betrachten.</t>
+  </si>
+  <si>
+    <t>nesbittIntroduction2016a</t>
   </si>
 </sst>
 </file>
@@ -774,8 +777,8 @@
   </sheetPr>
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -817,7 +820,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -856,13 +859,13 @@
         <v>2024-04-15-1.md</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H14" si="1">B2 &amp; ". " &amp; F2</f>
@@ -880,7 +883,7 @@
         <v>1-Vorstellungen</v>
       </c>
       <c r="M2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N2" t="str">
         <f t="shared" ref="N2:N14" si="4">"["&amp;B2&amp;"]"</f>
@@ -913,13 +916,13 @@
         <v>2024-04-22-2.md</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="1"/>
@@ -930,17 +933,17 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" si="3"/>
         <v>2-Kommunikationswege</v>
       </c>
       <c r="L3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="4"/>
@@ -973,13 +976,13 @@
         <v>2024-04-29-3.md</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
@@ -997,10 +1000,10 @@
         <v>3-Zugehörigkeit</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="4"/>
@@ -1028,13 +1031,13 @@
         <v>2024-05-06-4.md</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
@@ -1052,10 +1055,10 @@
         <v>4-Exklusivität</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="4"/>
@@ -1083,13 +1086,13 @@
         <v>2024-05-13-5.md</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
@@ -1107,10 +1110,10 @@
         <v>5-Gewalt-und-Druck</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="4"/>
@@ -1138,13 +1141,13 @@
         <v>2024-05-27-6.md</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s">
         <v>67</v>
-      </c>
-      <c r="G7" t="s">
-        <v>68</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
@@ -1155,13 +1158,16 @@
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="3"/>
         <v>6-Migration</v>
       </c>
       <c r="L7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" t="s">
         <v>79</v>
       </c>
       <c r="N7" t="str">
@@ -1190,13 +1196,13 @@
         <v>2024-06-03-7.md</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
         <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" t="s">
-        <v>39</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
@@ -1207,17 +1213,17 @@
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="3"/>
         <v>7-Innerer-Wandel</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="M8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="4"/>
@@ -1245,13 +1251,13 @@
         <v>2024-06-10-8.md</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
         <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
@@ -1262,17 +1268,17 @@
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="3"/>
         <v>8-Individuelle-Konversion</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="4"/>
@@ -1300,13 +1306,13 @@
         <v>2024-06-17-9.md</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
@@ -1324,10 +1330,10 @@
         <v>9-Aufrechterhaltung</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="4"/>
@@ -1355,13 +1361,13 @@
         <v>2024-06-24-10.md</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
@@ -1372,17 +1378,17 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="3"/>
         <v>10-Dekonversion</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="4"/>
@@ -1410,13 +1416,13 @@
         <v>2024-07-01-11.md</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
@@ -1427,17 +1433,17 @@
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="3"/>
         <v>11-Radikalisierung</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="4"/>
@@ -1465,13 +1471,13 @@
         <v>2024-07-08-12.md</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
         <v>61</v>
-      </c>
-      <c r="G13" t="s">
-        <v>62</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
@@ -1489,10 +1495,10 @@
         <v>12-Wandel-im-Hintergrund</v>
       </c>
       <c r="L13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="4"/>
@@ -1520,13 +1526,13 @@
         <v>2024-07-15-13.md</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
         <v>44</v>
       </c>
-      <c r="F14" t="s">
-        <v>45</v>
-      </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
@@ -1537,7 +1543,7 @@
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="3"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24inter/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F557B6-2D35-924A-8DAB-A798FA61AA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DF0953-E8C1-5A4F-B148-EB8FD3DF6D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="5200" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
   <si>
     <t>blank</t>
   </si>
@@ -171,21 +171,6 @@
     <t>teapot.jpg</t>
   </si>
   <si>
-    <t>[pollackIntegrationUndReligion2016a]</t>
-  </si>
-  <si>
-    <t>[hoodWhatDeconversionCritiques2021]</t>
-  </si>
-  <si>
-    <t>[simonsohnConversionApostasyPenance2015b]</t>
-  </si>
-  <si>
-    <t>[srowigRadikalisierungIndividuenUeberblick2018]</t>
-  </si>
-  <si>
-    <t>Identify some of the ways religions embrace outside ideas and give some examples.</t>
-  </si>
-  <si>
     <t>Name some ways religious affiliation is maintained and continued across multiple generations and cultures.</t>
   </si>
   <si>
@@ -207,9 +192,6 @@
     <t>Discuss whether leaving a religion is a process similar to conversion.</t>
   </si>
   <si>
-    <t>Explain some of the historical reasons that joining a religion required rules and rituals.</t>
-  </si>
-  <si>
     <t>Discuss the role of religion in the process of radicalization.</t>
   </si>
   <si>
@@ -352,6 +334,18 @@
   </si>
   <si>
     <t>nesbittIntroduction2016a</t>
+  </si>
+  <si>
+    <t>Die Flexibilität von religiösen Systemen anhand von "neuen" und "alten" Religionen betrachten.</t>
+  </si>
+  <si>
+    <t>hoodWhatDeconversionCritiques2021</t>
+  </si>
+  <si>
+    <t>srowigRadikalisierungIndividuenUeberblick2018</t>
+  </si>
+  <si>
+    <t>simonsohnFemaleConversionIslam2020c</t>
   </si>
 </sst>
 </file>
@@ -777,8 +771,8 @@
   </sheetPr>
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -820,7 +814,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -859,13 +853,13 @@
         <v>2024-04-15-1.md</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H14" si="1">B2 &amp; ". " &amp; F2</f>
@@ -883,7 +877,7 @@
         <v>1-Vorstellungen</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="N2" t="str">
         <f t="shared" ref="N2:N14" si="4">"["&amp;B2&amp;"]"</f>
@@ -916,13 +910,13 @@
         <v>2024-04-22-2.md</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="1"/>
@@ -933,17 +927,17 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" si="3"/>
         <v>2-Kommunikationswege</v>
       </c>
       <c r="L3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="4"/>
@@ -976,13 +970,13 @@
         <v>2024-04-29-3.md</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
@@ -1000,10 +994,10 @@
         <v>3-Zugehörigkeit</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="M4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="4"/>
@@ -1031,13 +1025,13 @@
         <v>2024-05-06-4.md</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
@@ -1055,10 +1049,10 @@
         <v>4-Exklusivität</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="4"/>
@@ -1086,13 +1080,13 @@
         <v>2024-05-13-5.md</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
@@ -1110,10 +1104,10 @@
         <v>5-Gewalt-und-Druck</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="4"/>
@@ -1141,13 +1135,13 @@
         <v>2024-05-27-6.md</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
@@ -1158,17 +1152,17 @@
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="3"/>
         <v>6-Migration</v>
       </c>
       <c r="L7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="4"/>
@@ -1196,13 +1190,13 @@
         <v>2024-06-03-7.md</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
@@ -1213,17 +1207,17 @@
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="3"/>
         <v>7-Innerer-Wandel</v>
       </c>
       <c r="L8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M8" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="4"/>
@@ -1251,13 +1245,13 @@
         <v>2024-06-10-8.md</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
@@ -1268,17 +1262,14 @@
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="3"/>
         <v>8-Individuelle-Konversion</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="4"/>
@@ -1306,13 +1297,13 @@
         <v>2024-06-17-9.md</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
@@ -1329,11 +1320,8 @@
         <f t="shared" si="3"/>
         <v>9-Aufrechterhaltung</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>20</v>
-      </c>
-      <c r="M10" t="s">
-        <v>25</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="4"/>
@@ -1361,13 +1349,13 @@
         <v>2024-06-24-10.md</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
@@ -1378,17 +1366,17 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="3"/>
         <v>10-Dekonversion</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="M11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="4"/>
@@ -1416,13 +1404,13 @@
         <v>2024-07-01-11.md</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
@@ -1433,17 +1421,17 @@
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="3"/>
         <v>11-Radikalisierung</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="M12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="4"/>
@@ -1471,13 +1459,13 @@
         <v>2024-07-08-12.md</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
@@ -1495,10 +1483,10 @@
         <v>12-Wandel-im-Hintergrund</v>
       </c>
       <c r="L13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="M13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="4"/>
@@ -1526,13 +1514,13 @@
         <v>2024-07-15-13.md</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
@@ -1543,7 +1531,7 @@
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="3"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24inter/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DF0953-E8C1-5A4F-B148-EB8FD3DF6D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD27BD9-FA9D-8142-A9F7-F86956DCE14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>blank</t>
   </si>
@@ -346,6 +346,12 @@
   </si>
   <si>
     <t>simonsohnFemaleConversionIslam2020c</t>
+  </si>
+  <si>
+    <t>Gemeinschaftliche Werte in Konversionsnarrativen berücksichtigen und auch hinterfragen.</t>
+  </si>
+  <si>
+    <t>shohamConceptualAnthropologicalHistory2018</t>
   </si>
 </sst>
 </file>
@@ -771,8 +777,8 @@
   </sheetPr>
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1271,6 +1277,9 @@
       <c r="L9" t="s">
         <v>78</v>
       </c>
+      <c r="M9" t="s">
+        <v>79</v>
+      </c>
       <c r="N9" t="str">
         <f t="shared" si="4"/>
         <v>[8]</v>
@@ -1320,6 +1329,9 @@
         <f t="shared" si="3"/>
         <v>9-Aufrechterhaltung</v>
       </c>
+      <c r="L10" t="s">
+        <v>80</v>
+      </c>
       <c r="M10" t="s">
         <v>20</v>
       </c>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24inter/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD27BD9-FA9D-8142-A9F7-F86956DCE14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B644997-A24C-2041-B431-5648F4C3D6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -339,9 +339,6 @@
     <t>Die Flexibilität von religiösen Systemen anhand von "neuen" und "alten" Religionen betrachten.</t>
   </si>
   <si>
-    <t>hoodWhatDeconversionCritiques2021</t>
-  </si>
-  <si>
     <t>srowigRadikalisierungIndividuenUeberblick2018</t>
   </si>
   <si>
@@ -352,6 +349,9 @@
   </si>
   <si>
     <t>shohamConceptualAnthropologicalHistory2018</t>
+  </si>
+  <si>
+    <t>streibWhatDeconversionProfiling2009</t>
   </si>
 </sst>
 </file>
@@ -778,7 +778,7 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1275,10 +1275,10 @@
         <v>8-Individuelle-Konversion</v>
       </c>
       <c r="L9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" t="s">
         <v>78</v>
-      </c>
-      <c r="M9" t="s">
-        <v>79</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="4"/>
@@ -1330,7 +1330,7 @@
         <v>9-Aufrechterhaltung</v>
       </c>
       <c r="L10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M10" t="s">
         <v>20</v>
@@ -1385,7 +1385,7 @@
         <v>10-Dekonversion</v>
       </c>
       <c r="L11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M11" t="s">
         <v>26</v>
@@ -1440,7 +1440,7 @@
         <v>11-Radikalisierung</v>
       </c>
       <c r="L12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M12" t="s">
         <v>27</v>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24inter/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B644997-A24C-2041-B431-5648F4C3D6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C506096-2336-6647-BF0F-BCAF71758C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -171,9 +171,6 @@
     <t>teapot.jpg</t>
   </si>
   <si>
-    <t>Name some ways religious affiliation is maintained and continued across multiple generations and cultures.</t>
-  </si>
-  <si>
     <t>birds-in-flight.jpg</t>
   </si>
   <si>
@@ -352,6 +349,9 @@
   </si>
   <si>
     <t>streibWhatDeconversionProfiling2009</t>
+  </si>
+  <si>
+    <t>(Thema wird zusammen mit dem nächsten behandelt.)</t>
   </si>
 </sst>
 </file>
@@ -778,7 +778,7 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -820,7 +820,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -859,13 +859,13 @@
         <v>2024-04-15-1.md</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H14" si="1">B2 &amp; ". " &amp; F2</f>
@@ -883,7 +883,7 @@
         <v>1-Vorstellungen</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N2" t="str">
         <f t="shared" ref="N2:N14" si="4">"["&amp;B2&amp;"]"</f>
@@ -916,13 +916,13 @@
         <v>2024-04-22-2.md</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="1"/>
@@ -933,17 +933,17 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" si="3"/>
         <v>2-Kommunikationswege</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="4"/>
@@ -976,13 +976,13 @@
         <v>2024-04-29-3.md</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
@@ -1000,10 +1000,10 @@
         <v>3-Zugehörigkeit</v>
       </c>
       <c r="L4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="4"/>
@@ -1031,13 +1031,13 @@
         <v>2024-05-06-4.md</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
@@ -1055,10 +1055,10 @@
         <v>4-Exklusivität</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="4"/>
@@ -1086,13 +1086,13 @@
         <v>2024-05-13-5.md</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
@@ -1110,10 +1110,10 @@
         <v>5-Gewalt-und-Druck</v>
       </c>
       <c r="L6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="4"/>
@@ -1141,13 +1141,13 @@
         <v>2024-05-27-6.md</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
         <v>60</v>
-      </c>
-      <c r="G7" t="s">
-        <v>61</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
@@ -1158,17 +1158,17 @@
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="3"/>
         <v>6-Migration</v>
       </c>
       <c r="L7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" t="s">
         <v>72</v>
-      </c>
-      <c r="M7" t="s">
-        <v>73</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="4"/>
@@ -1196,13 +1196,13 @@
         <v>2024-06-03-7.md</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
         <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
@@ -1213,17 +1213,17 @@
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="3"/>
         <v>7-Innerer-Wandel</v>
       </c>
       <c r="L8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" t="s">
         <v>74</v>
-      </c>
-      <c r="M8" t="s">
-        <v>75</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="4"/>
@@ -1251,13 +1251,13 @@
         <v>2024-06-10-8.md</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
         <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
@@ -1268,17 +1268,17 @@
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="3"/>
         <v>8-Individuelle-Konversion</v>
       </c>
       <c r="L9" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" t="s">
         <v>77</v>
-      </c>
-      <c r="M9" t="s">
-        <v>78</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="4"/>
@@ -1306,13 +1306,13 @@
         <v>2024-06-17-9.md</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
@@ -1330,10 +1330,10 @@
         <v>9-Aufrechterhaltung</v>
       </c>
       <c r="L10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M10" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="4"/>
@@ -1361,13 +1361,13 @@
         <v>2024-06-24-10.md</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
@@ -1378,17 +1378,17 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="3"/>
         <v>10-Dekonversion</v>
       </c>
       <c r="L11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="4"/>
@@ -1416,13 +1416,13 @@
         <v>2024-07-01-11.md</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
@@ -1433,17 +1433,17 @@
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="3"/>
         <v>11-Radikalisierung</v>
       </c>
       <c r="L12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="4"/>
@@ -1471,13 +1471,13 @@
         <v>2024-07-08-12.md</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
         <v>54</v>
-      </c>
-      <c r="G13" t="s">
-        <v>55</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
@@ -1495,10 +1495,10 @@
         <v>12-Wandel-im-Hintergrund</v>
       </c>
       <c r="L13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="4"/>
@@ -1526,13 +1526,13 @@
         <v>2024-07-15-13.md</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
@@ -1543,7 +1543,7 @@
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="3"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24inter/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C506096-2336-6647-BF0F-BCAF71758C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47262EF5-47E2-6E49-BFDF-639827B0D2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10480" yWindow="5200" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{EFB28E87-FD87-B34B-ACE6-A1B0D91D57F6}">
+    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{EFB28E87-FD87-B34B-ACE6-A1B0D91D57F6}">
       <text>
         <r>
           <rPr>
@@ -186,9 +186,6 @@
     <t>color-blocks.jpg</t>
   </si>
   <si>
-    <t>Discuss whether leaving a religion is a process similar to conversion.</t>
-  </si>
-  <si>
     <t>Discuss the role of religion in the process of radicalization.</t>
   </si>
   <si>
@@ -352,6 +349,9 @@
   </si>
   <si>
     <t>(Thema wird zusammen mit dem nächsten behandelt.)</t>
+  </si>
+  <si>
+    <t>Die Faktoren vergleichen, die für den Verbleib in einer Religion und den Austritt aus ihr sprechen.</t>
   </si>
 </sst>
 </file>
@@ -777,8 +777,8 @@
   </sheetPr>
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -820,7 +820,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -859,13 +859,13 @@
         <v>2024-04-15-1.md</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H14" si="1">B2 &amp; ". " &amp; F2</f>
@@ -883,7 +883,7 @@
         <v>1-Vorstellungen</v>
       </c>
       <c r="M2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N2" t="str">
         <f t="shared" ref="N2:N14" si="4">"["&amp;B2&amp;"]"</f>
@@ -916,13 +916,13 @@
         <v>2024-04-22-2.md</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="1"/>
@@ -940,10 +940,10 @@
         <v>2-Kommunikationswege</v>
       </c>
       <c r="L3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="4"/>
@@ -976,13 +976,13 @@
         <v>2024-04-29-3.md</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
@@ -1000,10 +1000,10 @@
         <v>3-Zugehörigkeit</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="4"/>
@@ -1031,13 +1031,13 @@
         <v>2024-05-06-4.md</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
@@ -1055,10 +1055,10 @@
         <v>4-Exklusivität</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="4"/>
@@ -1086,13 +1086,13 @@
         <v>2024-05-13-5.md</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
@@ -1110,10 +1110,10 @@
         <v>5-Gewalt-und-Druck</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="4"/>
@@ -1141,13 +1141,13 @@
         <v>2024-05-27-6.md</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
         <v>59</v>
-      </c>
-      <c r="G7" t="s">
-        <v>60</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
@@ -1165,10 +1165,10 @@
         <v>6-Migration</v>
       </c>
       <c r="L7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" t="s">
         <v>71</v>
-      </c>
-      <c r="M7" t="s">
-        <v>72</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="4"/>
@@ -1196,13 +1196,13 @@
         <v>2024-06-03-7.md</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
         <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
@@ -1220,10 +1220,10 @@
         <v>7-Innerer-Wandel</v>
       </c>
       <c r="L8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" t="s">
         <v>73</v>
-      </c>
-      <c r="M8" t="s">
-        <v>74</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="4"/>
@@ -1251,13 +1251,13 @@
         <v>2024-06-10-8.md</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
         <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
@@ -1275,10 +1275,10 @@
         <v>8-Individuelle-Konversion</v>
       </c>
       <c r="L9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" t="s">
         <v>76</v>
-      </c>
-      <c r="M9" t="s">
-        <v>77</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="4"/>
@@ -1306,13 +1306,13 @@
         <v>2024-06-17-9.md</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
@@ -1330,10 +1330,10 @@
         <v>9-Aufrechterhaltung</v>
       </c>
       <c r="L10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="4"/>
@@ -1361,13 +1361,13 @@
         <v>2024-06-24-10.md</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
@@ -1378,17 +1378,17 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="3"/>
         <v>10-Dekonversion</v>
       </c>
       <c r="L11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M11" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="4"/>
@@ -1416,13 +1416,13 @@
         <v>2024-07-01-11.md</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
@@ -1440,10 +1440,10 @@
         <v>11-Radikalisierung</v>
       </c>
       <c r="L12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="4"/>
@@ -1471,34 +1471,28 @@
         <v>2024-07-08-12.md</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
         <v>36</v>
       </c>
-      <c r="F13" t="s">
-        <v>53</v>
-      </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
-        <v>12. Wandel im Hintergrund</v>
+        <v>12. Rückblick</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="3"/>
-        <v>12-Wandel-im-Hintergrund</v>
-      </c>
-      <c r="L13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" t="s">
-        <v>27</v>
+        <v>12-Rückblick</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="4"/>
@@ -1526,28 +1520,34 @@
         <v>2024-07-15-13.md</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
-        <v>13. Rückblick</v>
+        <v>13. Wandel im Hintergrund</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="3"/>
-        <v>13-Rückblick</v>
+        <v>13-Wandel-im-Hintergrund</v>
+      </c>
+      <c r="L14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="4"/>
@@ -1565,8 +1565,6 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
     </row>
     <row r="36" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E36" s="8"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24inter/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47262EF5-47E2-6E49-BFDF-639827B0D2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A8D273-F3F9-414A-9499-40FC1DD4CFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10480" yWindow="5200" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -333,9 +333,6 @@
     <t>Die Flexibilität von religiösen Systemen anhand von "neuen" und "alten" Religionen betrachten.</t>
   </si>
   <si>
-    <t>srowigRadikalisierungIndividuenUeberblick2018</t>
-  </si>
-  <si>
     <t>simonsohnFemaleConversionIslam2020c</t>
   </si>
   <si>
@@ -352,6 +349,9 @@
   </si>
   <si>
     <t>Die Faktoren vergleichen, die für den Verbleib in einer Religion und den Austritt aus ihr sprechen.</t>
+  </si>
+  <si>
+    <t>srowigRadikalisierungIndividuenUeberblick2018a</t>
   </si>
 </sst>
 </file>
@@ -777,8 +777,8 @@
   </sheetPr>
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1275,10 +1275,10 @@
         <v>8-Individuelle-Konversion</v>
       </c>
       <c r="L9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" t="s">
         <v>75</v>
-      </c>
-      <c r="M9" t="s">
-        <v>76</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="4"/>
@@ -1330,10 +1330,10 @@
         <v>9-Aufrechterhaltung</v>
       </c>
       <c r="L10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="4"/>
@@ -1385,10 +1385,10 @@
         <v>10-Dekonversion</v>
       </c>
       <c r="L11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="4"/>
@@ -1440,7 +1440,7 @@
         <v>11-Radikalisierung</v>
       </c>
       <c r="L12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M12" t="s">
         <v>25</v>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24inter/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A8D273-F3F9-414A-9499-40FC1DD4CFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948C7E5A-9435-A640-B975-93113E05713F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10480" yWindow="5200" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,9 +186,6 @@
     <t>color-blocks.jpg</t>
   </si>
   <si>
-    <t>Discuss the role of religion in the process of radicalization.</t>
-  </si>
-  <si>
     <t>Identify some cultural dimensions to be aware of when starting cross-cultural conversations.</t>
   </si>
   <si>
@@ -352,6 +349,9 @@
   </si>
   <si>
     <t>srowigRadikalisierungIndividuenUeberblick2018a</t>
+  </si>
+  <si>
+    <t>Radikalisierung erkennen und ihre Wurzeln in der Kommunikation berücksichtigen können.</t>
   </si>
 </sst>
 </file>
@@ -777,8 +777,8 @@
   </sheetPr>
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -820,7 +820,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -859,13 +859,13 @@
         <v>2024-04-15-1.md</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H14" si="1">B2 &amp; ". " &amp; F2</f>
@@ -883,7 +883,7 @@
         <v>1-Vorstellungen</v>
       </c>
       <c r="M2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N2" t="str">
         <f t="shared" ref="N2:N14" si="4">"["&amp;B2&amp;"]"</f>
@@ -916,13 +916,13 @@
         <v>2024-04-22-2.md</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="1"/>
@@ -940,10 +940,10 @@
         <v>2-Kommunikationswege</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="4"/>
@@ -976,13 +976,13 @@
         <v>2024-04-29-3.md</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
@@ -1000,10 +1000,10 @@
         <v>3-Zugehörigkeit</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="4"/>
@@ -1031,13 +1031,13 @@
         <v>2024-05-06-4.md</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
@@ -1055,10 +1055,10 @@
         <v>4-Exklusivität</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="4"/>
@@ -1086,13 +1086,13 @@
         <v>2024-05-13-5.md</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
@@ -1110,10 +1110,10 @@
         <v>5-Gewalt-und-Druck</v>
       </c>
       <c r="L6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="4"/>
@@ -1141,13 +1141,13 @@
         <v>2024-05-27-6.md</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
         <v>58</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
@@ -1165,10 +1165,10 @@
         <v>6-Migration</v>
       </c>
       <c r="L7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" t="s">
         <v>70</v>
-      </c>
-      <c r="M7" t="s">
-        <v>71</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="4"/>
@@ -1196,13 +1196,13 @@
         <v>2024-06-03-7.md</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
         <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
@@ -1220,10 +1220,10 @@
         <v>7-Innerer-Wandel</v>
       </c>
       <c r="L8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" t="s">
         <v>72</v>
-      </c>
-      <c r="M8" t="s">
-        <v>73</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="4"/>
@@ -1251,13 +1251,13 @@
         <v>2024-06-10-8.md</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
         <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
@@ -1275,10 +1275,10 @@
         <v>8-Individuelle-Konversion</v>
       </c>
       <c r="L9" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" t="s">
         <v>74</v>
-      </c>
-      <c r="M9" t="s">
-        <v>75</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="4"/>
@@ -1306,13 +1306,13 @@
         <v>2024-06-17-9.md</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
@@ -1330,10 +1330,10 @@
         <v>9-Aufrechterhaltung</v>
       </c>
       <c r="L10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="4"/>
@@ -1361,13 +1361,13 @@
         <v>2024-06-24-10.md</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
@@ -1378,17 +1378,17 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="3"/>
         <v>10-Dekonversion</v>
       </c>
       <c r="L11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="4"/>
@@ -1416,13 +1416,13 @@
         <v>2024-07-01-11.md</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
@@ -1440,10 +1440,10 @@
         <v>11-Radikalisierung</v>
       </c>
       <c r="L12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="M12" t="s">
-        <v>25</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="4"/>
@@ -1471,13 +1471,13 @@
         <v>2024-07-08-12.md</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
         <v>35</v>
       </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
@@ -1488,7 +1488,7 @@
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="3"/>
@@ -1520,13 +1520,13 @@
         <v>2024-07-15-13.md</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
         <v>52</v>
-      </c>
-      <c r="G14" t="s">
-        <v>53</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
@@ -1544,10 +1544,10 @@
         <v>13-Wandel-im-Hintergrund</v>
       </c>
       <c r="L14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="4"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24inter/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948C7E5A-9435-A640-B975-93113E05713F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19EEFDD-00BF-0E4F-B950-73AE403295FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="5200" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -276,9 +276,6 @@
     <t>[mcguireEverydayReligionLived2008, welteckeUeberReligionVor2015a]</t>
   </si>
   <si>
-    <t>[kotthoffRitualStyleCultures2008a, ortonInterfaithDialogueSeven2016a]</t>
-  </si>
-  <si>
     <t>Gewalt und Druck</t>
   </si>
   <si>
@@ -352,6 +349,9 @@
   </si>
   <si>
     <t>Radikalisierung erkennen und ihre Wurzeln in der Kommunikation berücksichtigen können.</t>
+  </si>
+  <si>
+    <t>kotthoffRitualStyleCultures2008b</t>
   </si>
 </sst>
 </file>
@@ -777,8 +777,8 @@
   </sheetPr>
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -883,7 +883,7 @@
         <v>1-Vorstellungen</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N2" t="str">
         <f t="shared" ref="N2:N14" si="4">"["&amp;B2&amp;"]"</f>
@@ -940,10 +940,10 @@
         <v>2-Kommunikationswege</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="4"/>
@@ -1003,7 +1003,7 @@
         <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="4"/>
@@ -1055,10 +1055,10 @@
         <v>4-Exklusivität</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="4"/>
@@ -1089,10 +1089,10 @@
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
@@ -1110,10 +1110,10 @@
         <v>5-Gewalt-und-Druck</v>
       </c>
       <c r="L6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="4"/>
@@ -1144,10 +1144,10 @@
         <v>28</v>
       </c>
       <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
         <v>57</v>
-      </c>
-      <c r="G7" t="s">
-        <v>58</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
@@ -1165,10 +1165,10 @@
         <v>6-Migration</v>
       </c>
       <c r="L7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" t="s">
         <v>69</v>
-      </c>
-      <c r="M7" t="s">
-        <v>70</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="4"/>
@@ -1220,10 +1220,10 @@
         <v>7-Innerer-Wandel</v>
       </c>
       <c r="L8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" t="s">
         <v>71</v>
-      </c>
-      <c r="M8" t="s">
-        <v>72</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="4"/>
@@ -1275,10 +1275,10 @@
         <v>8-Individuelle-Konversion</v>
       </c>
       <c r="L9" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" t="s">
         <v>73</v>
-      </c>
-      <c r="M9" t="s">
-        <v>74</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="4"/>
@@ -1330,10 +1330,10 @@
         <v>9-Aufrechterhaltung</v>
       </c>
       <c r="L10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="4"/>
@@ -1385,10 +1385,10 @@
         <v>10-Dekonversion</v>
       </c>
       <c r="L11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="4"/>
@@ -1440,10 +1440,10 @@
         <v>11-Radikalisierung</v>
       </c>
       <c r="L12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="4"/>
@@ -1488,7 +1488,7 @@
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="3"/>
@@ -1544,7 +1544,7 @@
         <v>13-Wandel-im-Hintergrund</v>
       </c>
       <c r="L14" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="M14" t="s">
         <v>25</v>
